--- a/Ayudantia Economia/Evaluacion/Entregas preliminares/Check List.xlsx
+++ b/Ayudantia Economia/Evaluacion/Entregas preliminares/Check List.xlsx
@@ -1022,25 +1022,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,26 +1378,26 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="16"/>
+      <c r="C3" s="13"/>
     </row>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="B4" s="17"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="10" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="11"/>
       <c r="D5" s="1">
         <v>22</v>
       </c>
@@ -1412,10 +1412,10 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="12"/>
+      <c r="C6" s="11"/>
       <c r="D6" s="1">
         <v>21</v>
       </c>
@@ -1430,10 +1430,10 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="11"/>
       <c r="D7" s="1">
         <v>27</v>
       </c>
@@ -1448,10 +1448,10 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
       <c r="D8" s="1">
         <v>26</v>
       </c>
@@ -1466,10 +1466,10 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="11"/>
       <c r="D9" s="1">
         <v>20</v>
       </c>
@@ -1484,15 +1484,15 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="11"/>
       <c r="D10" s="1">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2">
         <v>24</v>
@@ -1502,10 +1502,10 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="1">
         <v>28</v>
       </c>
@@ -1520,10 +1520,10 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="1">
         <v>17</v>
       </c>
@@ -1539,16 +1539,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B3:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G12 E5:E12">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">

--- a/Ayudantia Economia/Evaluacion/Entregas preliminares/Check List.xlsx
+++ b/Ayudantia Economia/Evaluacion/Entregas preliminares/Check List.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1420" yWindow="460" windowWidth="25900" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="2600" yWindow="4680" windowWidth="25900" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Grupos revisados" sheetId="1" r:id="rId1"/>
@@ -1022,25 +1022,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1378,26 +1378,26 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="13"/>
+      <c r="C3" s="16"/>
     </row>
     <row r="4" spans="2:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="1">
         <v>22</v>
       </c>
@@ -1412,15 +1412,15 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="11"/>
+      <c r="C6" s="12"/>
       <c r="D6" s="1">
         <v>21</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2">
         <v>15</v>
@@ -1430,10 +1430,10 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="12"/>
       <c r="D7" s="1">
         <v>27</v>
       </c>
@@ -1448,10 +1448,10 @@
       </c>
     </row>
     <row r="8" spans="2:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="11"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="1">
         <v>26</v>
       </c>
@@ -1466,15 +1466,15 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="1">
         <v>20</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F9" s="2">
         <v>23</v>
@@ -1484,15 +1484,15 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="1">
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2">
         <v>24</v>
@@ -1502,10 +1502,10 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="11"/>
+      <c r="C11" s="12"/>
       <c r="D11" s="1">
         <v>28</v>
       </c>
@@ -1520,10 +1520,10 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="11"/>
+      <c r="C12" s="12"/>
       <c r="D12" s="1">
         <v>17</v>
       </c>
@@ -1534,21 +1534,21 @@
         <v>16</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B3:C4"/>
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B3:C4"/>
   </mergeCells>
   <conditionalFormatting sqref="G5:G12 E5:E12">
     <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
